--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09371640855186358</v>
+        <v>0.1092544143289513</v>
       </c>
       <c r="D2">
-        <v>0.09631283524051226</v>
+        <v>0.1626591030465032</v>
       </c>
       <c r="E2">
-        <v>0.8596681073980301</v>
+        <v>0.884331627809273</v>
       </c>
       <c r="F2">
-        <v>0.1896451161168538</v>
+        <v>0.2404582752421955</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09371640855186358</v>
+        <v>0.1092544143289513</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9630689215205712</v>
+        <v>0.9617955425706066</v>
       </c>
       <c r="E3">
-        <v>0.144667673218289</v>
+        <v>0.2182810110524067</v>
       </c>
       <c r="F3">
-        <v>0.5870581727188728</v>
+        <v>0.5771832901653418</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09631283524051226</v>
+        <v>0.1626591030465032</v>
       </c>
       <c r="C4">
-        <v>0.9630689215205712</v>
+        <v>0.9617955425706066</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1578770414010142</v>
+        <v>0.2710934703354031</v>
       </c>
       <c r="F4">
-        <v>0.589537639920402</v>
+        <v>0.6555188217173904</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8596681073980301</v>
+        <v>0.884331627809273</v>
       </c>
       <c r="C5">
-        <v>0.144667673218289</v>
+        <v>0.2182810110524067</v>
       </c>
       <c r="D5">
-        <v>0.1578770414010142</v>
+        <v>0.2710934703354031</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.03805281034386709</v>
+        <v>0.08062213318340294</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1896451161168538</v>
+        <v>0.2404582752421955</v>
       </c>
       <c r="C6">
-        <v>0.5870581727188728</v>
+        <v>0.5771832901653418</v>
       </c>
       <c r="D6">
-        <v>0.589537639920402</v>
+        <v>0.6555188217173904</v>
       </c>
       <c r="E6">
-        <v>0.03805281034386709</v>
+        <v>0.08062213318340294</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.677221220497724</v>
+        <v>-1.669167359367889</v>
       </c>
       <c r="D2">
-        <v>-1.664086648108389</v>
+        <v>-1.444614438951007</v>
       </c>
       <c r="E2">
-        <v>-0.1768283450791013</v>
+        <v>-0.1471784609164602</v>
       </c>
       <c r="F2">
-        <v>-1.312249868013951</v>
+        <v>-1.206448970627254</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.677221220497724</v>
+        <v>1.669167359367889</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.04631084478544681</v>
+        <v>-0.04844902438631072</v>
       </c>
       <c r="E3">
-        <v>1.459420454828433</v>
+        <v>1.26735147725283</v>
       </c>
       <c r="F3">
-        <v>0.5432262454407155</v>
+        <v>0.565908466678087</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.664086648108389</v>
+        <v>1.444614438951007</v>
       </c>
       <c r="C4">
-        <v>0.04631084478544681</v>
+        <v>0.04844902438631072</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.412982778005383</v>
+        <v>1.128916032119154</v>
       </c>
       <c r="F4">
-        <v>0.5396272040387259</v>
+        <v>0.4522469379577835</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1768283450791013</v>
+        <v>0.1471784609164602</v>
       </c>
       <c r="C5">
-        <v>-1.459420454828433</v>
+        <v>-1.26735147725283</v>
       </c>
       <c r="D5">
-        <v>-1.412982778005383</v>
+        <v>-1.128916032119154</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.076198060266215</v>
+        <v>-1.831370871653119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.312249868013951</v>
+        <v>1.206448970627254</v>
       </c>
       <c r="C6">
-        <v>-0.5432262454407155</v>
+        <v>-0.565908466678087</v>
       </c>
       <c r="D6">
-        <v>-0.5396272040387259</v>
+        <v>-0.4522469379577835</v>
       </c>
       <c r="E6">
-        <v>2.076198060266215</v>
+        <v>1.831370871653119</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1092544143289513</v>
+        <v>0.463728953548352</v>
       </c>
       <c r="D2">
-        <v>0.1626591030465032</v>
+        <v>0.8151953803748444</v>
       </c>
       <c r="E2">
-        <v>0.884331627809273</v>
+        <v>0.1608336035538622</v>
       </c>
       <c r="F2">
-        <v>0.2404582752421955</v>
+        <v>0.2417144363747088</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1092544143289513</v>
+        <v>0.463728953548352</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9617955425706066</v>
+        <v>0.6288788543800394</v>
       </c>
       <c r="E3">
-        <v>0.2182810110524067</v>
+        <v>0.0688518665427269</v>
       </c>
       <c r="F3">
-        <v>0.5771832901653418</v>
+        <v>0.4405512296246101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1626591030465032</v>
+        <v>0.8151953803748444</v>
       </c>
       <c r="C4">
-        <v>0.9617955425706066</v>
+        <v>0.6288788543800394</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2710934703354031</v>
+        <v>0.1200743164484157</v>
       </c>
       <c r="F4">
-        <v>0.6555188217173904</v>
+        <v>0.39938031897649</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.884331627809273</v>
+        <v>0.1608336035538622</v>
       </c>
       <c r="C5">
-        <v>0.2182810110524067</v>
+        <v>0.0688518665427269</v>
       </c>
       <c r="D5">
-        <v>0.2710934703354031</v>
+        <v>0.1200743164484157</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.08062213318340294</v>
+        <v>0.141329762932084</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2404582752421955</v>
+        <v>0.2417144363747088</v>
       </c>
       <c r="C6">
-        <v>0.5771832901653418</v>
+        <v>0.4405512296246101</v>
       </c>
       <c r="D6">
-        <v>0.6555188217173904</v>
+        <v>0.39938031897649</v>
       </c>
       <c r="E6">
-        <v>0.08062213318340294</v>
+        <v>0.141329762932084</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.669167359367889</v>
+        <v>0.7410866444660306</v>
       </c>
       <c r="D2">
-        <v>-1.444614438951007</v>
+        <v>0.2355494428608178</v>
       </c>
       <c r="E2">
-        <v>-0.1471784609164602</v>
+        <v>-1.433549710279659</v>
       </c>
       <c r="F2">
-        <v>-1.206448970627254</v>
+        <v>1.191484665590755</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669167359367889</v>
+        <v>-0.7410866444660306</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.04844902438631072</v>
+        <v>-0.4877194881965294</v>
       </c>
       <c r="E3">
-        <v>1.26735147725283</v>
+        <v>-1.878911179778641</v>
       </c>
       <c r="F3">
-        <v>0.565908466678087</v>
+        <v>0.7804065713652274</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.444614438951007</v>
+        <v>-0.2355494428608178</v>
       </c>
       <c r="C4">
-        <v>0.04844902438631072</v>
+        <v>0.4877194881965294</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.128916032119154</v>
+        <v>-1.59452134489984</v>
       </c>
       <c r="F4">
-        <v>0.4522469379577835</v>
+        <v>0.8534543742596721</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1471784609164602</v>
+        <v>1.433549710279659</v>
       </c>
       <c r="C5">
-        <v>-1.26735147725283</v>
+        <v>1.878911179778641</v>
       </c>
       <c r="D5">
-        <v>-1.128916032119154</v>
+        <v>1.59452134489984</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.831370871653119</v>
+        <v>1.505892498401668</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.206448970627254</v>
+        <v>-1.191484665590755</v>
       </c>
       <c r="C6">
-        <v>-0.565908466678087</v>
+        <v>-0.7804065713652274</v>
       </c>
       <c r="D6">
-        <v>-0.4522469379577835</v>
+        <v>-0.8534543742596721</v>
       </c>
       <c r="E6">
-        <v>1.831370871653119</v>
+        <v>-1.505892498401668</v>
       </c>
       <c r="F6">
         <v>0</v>
